--- a/worksheet/IndividualWorkSheet(0520).xlsx
+++ b/worksheet/IndividualWorkSheet(0520).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sec\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D7CEBB-ED74-44BD-B5BC-3826433E491B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="경예지" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>할일</t>
   </si>
@@ -206,13 +212,29 @@
   </si>
   <si>
     <t>객체 생성을 개선함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근로장학생 선발 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적만을 기준으로 하는 근로장학생 선발 기능을 구현함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 미실시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -384,60 +406,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="23"/>
-    <tableColumn id="2" name="내용" dataDxfId="22"/>
-    <tableColumn id="3" name="할당일" dataDxfId="21"/>
-    <tableColumn id="4" name="완성일" dataDxfId="20"/>
-    <tableColumn id="5" name="결과" dataDxfId="19"/>
-    <tableColumn id="6" name="문제점" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="17"/>
-    <tableColumn id="2" name="내용" dataDxfId="16"/>
-    <tableColumn id="3" name="할당일" dataDxfId="15"/>
-    <tableColumn id="4" name="완성일" dataDxfId="14"/>
-    <tableColumn id="5" name="결과" dataDxfId="13"/>
-    <tableColumn id="6" name="문제점" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="할일" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="내용" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="할당일" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="완성일" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="결과" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="문제점" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="11"/>
-    <tableColumn id="2" name="내용" dataDxfId="10"/>
-    <tableColumn id="3" name="할당일" dataDxfId="9"/>
-    <tableColumn id="4" name="완성일" dataDxfId="8"/>
-    <tableColumn id="5" name="결과" dataDxfId="7"/>
-    <tableColumn id="6" name="문제점" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="할일" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="내용" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="할당일" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="완성일" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="결과" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="문제점" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table15" displayName="Table15" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="할일" dataDxfId="5"/>
-    <tableColumn id="2" name="내용" dataDxfId="4"/>
-    <tableColumn id="3" name="할당일" dataDxfId="3"/>
-    <tableColumn id="4" name="완성일" dataDxfId="2"/>
-    <tableColumn id="5" name="결과" dataDxfId="1"/>
-    <tableColumn id="6" name="문제점" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="할일" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="내용" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="할당일" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="완성일" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="결과" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="문제점" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -732,31 +754,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="5" max="5" width="26.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -796,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -816,7 +838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -836,7 +858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -844,7 +866,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -852,7 +874,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -860,7 +882,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -868,7 +890,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -876,7 +898,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -884,7 +906,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -892,7 +914,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -900,7 +922,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -908,7 +930,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -916,7 +938,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -935,21 +957,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -969,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,7 +1011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1027,7 +1049,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1035,7 +1057,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1043,7 +1065,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1051,7 +1073,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1059,7 +1081,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1067,7 +1089,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1075,7 +1097,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1083,7 +1105,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1091,7 +1113,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1099,7 +1121,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1107,7 +1129,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1125,22 +1147,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="35.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1218,7 +1240,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1246,7 +1268,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1254,7 +1276,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1262,7 +1284,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1270,7 +1292,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1278,7 +1300,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1286,7 +1308,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1294,7 +1316,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1302,7 +1324,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1310,7 +1332,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1328,22 +1350,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -1381,7 +1403,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1399,7 +1421,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1417,7 +1439,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1437,7 +1459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1455,7 +1477,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1473,15 +1495,27 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43605</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43605</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
@@ -1489,7 +1523,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
@@ -1497,7 +1531,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
@@ -1505,7 +1539,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
@@ -1513,7 +1547,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1521,7 +1555,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1529,7 +1563,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
